--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2106,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2153,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2199,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3088,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3135,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3181,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3278,10 +3290,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3325,28 +3337,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3371,28 +3383,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3521,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3556,28 +3568,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3614,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3752,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3787,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3845,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3971,10 +3983,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4018,28 +4030,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4064,28 +4076,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4185,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4220,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4278,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4404,10 +4416,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4451,28 +4463,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4497,28 +4509,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4635,10 +4647,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4682,28 +4694,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4728,28 +4740,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4924,10 +4936,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4971,28 +4983,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5017,28 +5029,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5299,10 +5311,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5346,28 +5358,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5392,28 +5404,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5703,10 +5715,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5750,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5796,28 +5808,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5888,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5935,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5981,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6061,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6096,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6154,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6251,10 +6263,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6298,28 +6310,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6344,28 +6356,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7533,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7568,28 +7580,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7626,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7706,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7741,28 +7753,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7799,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7896,10 +7908,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7943,28 +7955,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7989,28 +8001,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8069,10 +8081,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8116,28 +8128,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8162,28 +8174,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8271,10 +8283,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8318,28 +8330,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8364,28 +8376,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8456,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8491,28 +8503,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8549,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8687,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
